--- a/src/analysis_examples/circadb/results_jtk/cosinor_10596675_by080835_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10596675_by080835_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2856383681479446, 0.4402345208733707]</t>
+          <t>[0.28611447575278454, 0.43975841326853077]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.93658231065308e-09</v>
+        <v>2.637427609641918e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.93658231065308e-09</v>
+        <v>2.637427609641918e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6037895790683088</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.805052772091079, -0.4025263860455386]</t>
+          <t>[-0.8176317216550011, -0.38994743648161645]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.453195422942201e-06</v>
+        <v>7.907771240711625e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>3.453195422942201e-06</v>
+        <v>7.907771240711625e-06</v>
       </c>
       <c r="S2" t="n">
         <v>0.4131089939144471</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3731128076059834, 0.4531051802229108]</t>
+          <t>[0.3730963621345117, 0.4531216256943825]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.314954954955017</v>
       </c>
       <c r="X2" t="n">
-        <v>1.543303303303342</v>
+        <v>1.495075075075116</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.086606606606691</v>
+        <v>3.134834834834917</v>
       </c>
     </row>
   </sheetData>
